--- a/data/input/absenteeism_data_7.xlsx
+++ b/data/input/absenteeism_data_7.xlsx
@@ -476,219 +476,219 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>9253</v>
+        <v>62420</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cauã Farias</t>
+          <t>Ana Lívia Nascimento</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45094</v>
+        <v>45090</v>
       </c>
       <c r="G2" t="n">
-        <v>11883.42</v>
+        <v>2509.93</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>50180</v>
+        <v>96608</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sr. João Vitor Castro</t>
+          <t>Felipe Costela</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45105</v>
+        <v>45081</v>
       </c>
       <c r="G3" t="n">
-        <v>8534.200000000001</v>
+        <v>4797.02</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>83379</v>
+        <v>78515</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Rafaela Sales</t>
+          <t>Dra. Pietra Ramos</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45092</v>
+        <v>45090</v>
       </c>
       <c r="G4" t="n">
-        <v>10488.67</v>
+        <v>12082.94</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>53694</v>
+        <v>97504</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Paulo Lopes</t>
+          <t>Arthur Teixeira</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45102</v>
+        <v>45085</v>
       </c>
       <c r="G5" t="n">
-        <v>11993.64</v>
+        <v>5999.15</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>46615</v>
+        <v>69336</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ana Sophia Azevedo</t>
+          <t>Sr. Luiz Gustavo Novaes</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45105</v>
+        <v>45081</v>
       </c>
       <c r="G6" t="n">
-        <v>7932.62</v>
+        <v>3387.14</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>93351</v>
+        <v>48989</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Pedro Lucas Melo</t>
+          <t>Ana Laura Azevedo</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45098</v>
+        <v>45090</v>
       </c>
       <c r="G7" t="n">
-        <v>6814.74</v>
+        <v>4002.91</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>82498</v>
+        <v>81876</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Dr. Fernando Vieira</t>
+          <t>João Gabriel Lopes</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E8" t="n">
         <v>7</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45083</v>
+        <v>45099</v>
       </c>
       <c r="G8" t="n">
-        <v>4081.33</v>
+        <v>4650.34</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>32687</v>
+        <v>54272</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Otávio Teixeira</t>
+          <t>Luiz Miguel Barbosa</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -697,27 +697,27 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45092</v>
+        <v>45103</v>
       </c>
       <c r="G9" t="n">
-        <v>9583.42</v>
+        <v>2545.67</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>55810</v>
+        <v>75780</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Sra. Agatha Moreira</t>
+          <t>Luna Duarte</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -726,27 +726,27 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45082</v>
+        <v>45088</v>
       </c>
       <c r="G10" t="n">
-        <v>9602.25</v>
+        <v>10834.58</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>44745</v>
+        <v>16733</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Luiz Gustavo Nascimento</t>
+          <t>Luiz Miguel Nogueira</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45096</v>
+        <v>45094</v>
       </c>
       <c r="G11" t="n">
-        <v>5669.3</v>
+        <v>4064.9</v>
       </c>
     </row>
   </sheetData>
